--- a/DateBase/orders/Nhat 48_2025-12-9.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-9.xlsx
@@ -746,6 +746,9 @@
       <c r="G2" t="str">
         <v>0586655551218531512510510101010465651053</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
